--- a/data/trans_bre/P23_1_R_2016_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P23_1_R_2016_2023-Habitat-trans_bre.xlsx
@@ -598,7 +598,7 @@
         <v>-0.3155529529163235</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.3869342994998641</v>
+        <v>-0.386934299499864</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-16.20647671570406</v>
+        <v>-15.50846172673147</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.8567575720991</v>
+        <v>-14.61324601331752</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.4375909635544179</v>
+        <v>-0.417514782802719</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.4985683711229061</v>
+        <v>-0.4898751662106873</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.290808308501522</v>
+        <v>-5.347210248894918</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-5.730467823631954</v>
+        <v>-5.63801660269529</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>-0.1965506467860204</v>
+        <v>-0.165856652390286</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.2353465920183608</v>
+        <v>-0.2329195540530585</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-6.441696252939763</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-6.198980046805211</v>
+        <v>-6.198980046805206</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.2128458120332558</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.2775867021588164</v>
+        <v>-0.2775867021588163</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-10.14014414571008</v>
+        <v>-10.41145755686507</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.529241265307906</v>
+        <v>-9.588448418559969</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3166907515625799</v>
+        <v>-0.3251596918301494</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3979701761903194</v>
+        <v>-0.3942096510245472</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.819192184009988</v>
+        <v>-2.787900301916873</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-2.608859178188611</v>
+        <v>-2.573647584554905</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.09602579545831708</v>
+        <v>-0.1002791077187582</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1291750672094734</v>
+        <v>-0.1263509368806669</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>-11.96418460252426</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-3.993818288445414</v>
+        <v>-3.993818288445408</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>-0.3108438830518568</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>-0.1767958223469329</v>
+        <v>-0.1767958223469327</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-16.76324942415577</v>
+        <v>-16.94814719954903</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.862354926981411</v>
+        <v>-8.640930874693446</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.4084423949789657</v>
+        <v>-0.4156339226306966</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3442076078227079</v>
+        <v>-0.3397177159728976</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-6.509165347534321</v>
+        <v>-7.135960979273902</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3563613407522465</v>
+        <v>0.1686482635102692</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>-0.1830422683796297</v>
+        <v>-0.2036626870144753</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.02213813743111474</v>
+        <v>0.007783383660775661</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-5.004325935235576</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-5.767949240789508</v>
+        <v>-5.767949240789502</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1828353467886103</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.2562000233393233</v>
+        <v>-0.2562000233393231</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.063906710486398</v>
+        <v>-8.731397555067945</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-9.371380789803746</v>
+        <v>-9.30723457046483</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3070492000114426</v>
+        <v>-0.2997186653745187</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3790516671321192</v>
+        <v>-0.3768402531312097</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.109091843448446</v>
+        <v>-1.123182198683523</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.47573634237022</v>
+        <v>-2.455907920534048</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04464643634675668</v>
+        <v>-0.04571996166959795</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.123056092167835</v>
+        <v>-0.1119426844191962</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>-8.193215842646529</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-6.395309193385254</v>
+        <v>-6.395309193385248</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>-0.2549062345624437</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.274570725127133</v>
+        <v>-0.2745707251271328</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.57667330144976</v>
+        <v>-10.49016192629202</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.473182786465463</v>
+        <v>-8.233434877056226</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.3175203502700577</v>
+        <v>-0.3159253265693182</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3452640585025781</v>
+        <v>-0.3370769475317248</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-5.90405978098678</v>
+        <v>-6.073459476827011</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.678921964237541</v>
+        <v>-4.471190045251484</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.1908248149082122</v>
+        <v>-0.1963256891616644</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.2110989364495535</v>
+        <v>-0.202310177874935</v>
       </c>
     </row>
     <row r="19">
